--- a/biology/Médecine/Gabriel_Martin/Gabriel_Martin.xlsx
+++ b/biology/Médecine/Gabriel_Martin/Gabriel_Martin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Armand-Joseph-Gabriel Martin[1] (1880-1962) est un médecin français né le 4 juillet 1880 et décédé le 29 juin 1962 à l'île de La Réunion.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armand-Joseph-Gabriel Martin (1880-1962) est un médecin français né le 4 juillet 1880 et décédé le 29 juin 1962 à l'île de La Réunion.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Martin naît à Saint-Paul le 4 juillet 1880 et est diplômé de la faculté de médecine de Montpellier en 1906. Il est l'ami d'enfance du futur docteur Raymond Vergès, avec lequel il cesse toute relation d'amitié quand celui-ci entre en politique.
 Installé dans la maison natale, il entame la traditionnelle existence des médecins de l'époque. Il est nommé en 1910, membre de la commission administrative du bureau de bienfaisance de Saint-Paul tout en assurant également le service médical des indigents des Trois-Bassins jusqu'en 1920. Médecin de la commune et de l'asile d'aliénés, il n'est pas mobilisé pendant la Grande Guerre, pour « impossibilité de le remplacer ».
